--- a/Cadastro Localidades.xlsx
+++ b/Cadastro Localidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUÁRIO\0. Data Analyzes\0. GitHub\Vendas_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87143725-A243-4BE6-B5D1-1D3E983E1764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA9E30E-087B-44BD-A0DE-A32E9EDAE177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,151 +27,151 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
+    <t>Continente</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>57300-090</t>
+  </si>
+  <si>
+    <t>57600-080</t>
+  </si>
+  <si>
+    <t>57200-000</t>
+  </si>
+  <si>
+    <t>57020-900</t>
+  </si>
+  <si>
+    <t>04002-000</t>
+  </si>
+  <si>
+    <t>01001-000</t>
+  </si>
+  <si>
+    <t>05422-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02012-010</t>
+  </si>
+  <si>
+    <t>04523-010</t>
+  </si>
+  <si>
+    <t>05503-000</t>
+  </si>
+  <si>
+    <t>30130-010</t>
+  </si>
+  <si>
+    <t>38400-002</t>
+  </si>
+  <si>
+    <t>32010-070</t>
+  </si>
+  <si>
+    <t>36010-000</t>
+  </si>
+  <si>
+    <t>32600-004</t>
+  </si>
+  <si>
+    <t>39400-000</t>
+  </si>
+  <si>
+    <t>69010-060</t>
+  </si>
+  <si>
+    <t>69151-000</t>
+  </si>
+  <si>
+    <t>69400-000</t>
+  </si>
+  <si>
+    <t>20040-002</t>
+  </si>
+  <si>
+    <t>22041-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	76600-000</t>
+  </si>
+  <si>
+    <t>76610-000</t>
+  </si>
+  <si>
+    <t>66010-000</t>
+  </si>
+  <si>
+    <t>68700-005</t>
+  </si>
+  <si>
+    <t>78480-000</t>
+  </si>
+  <si>
+    <t>78580-000</t>
+  </si>
+  <si>
+    <t>78635-000</t>
+  </si>
+  <si>
+    <t>78780-000</t>
+  </si>
+  <si>
+    <t>40020-000</t>
+  </si>
+  <si>
+    <t>MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>AMAZONAS</t>
+  </si>
+  <si>
+    <t>RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>MATO GROSSO</t>
+  </si>
+  <si>
+    <t>GOIÁS</t>
+  </si>
+  <si>
+    <t>PARÁ</t>
+  </si>
+  <si>
+    <t>BAHIA</t>
+  </si>
+  <si>
     <t>País</t>
   </si>
   <si>
-    <t>Continente</t>
-  </si>
-  <si>
-    <t>Rússia</t>
-  </si>
-  <si>
     <t>ID Localidade</t>
   </si>
   <si>
-    <t>Brasil</t>
+    <t>SÃO PAULO</t>
+  </si>
+  <si>
+    <t>ALAGOAS</t>
   </si>
   <si>
     <t>América do Sul</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>CEP</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>57300-090</t>
-  </si>
-  <si>
-    <t>57600-080</t>
-  </si>
-  <si>
-    <t>57200-000</t>
-  </si>
-  <si>
-    <t>57020-900</t>
-  </si>
-  <si>
-    <t>04002-000</t>
-  </si>
-  <si>
-    <t>01001-000</t>
-  </si>
-  <si>
-    <t>05422-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 02012-010</t>
-  </si>
-  <si>
-    <t>04523-010</t>
-  </si>
-  <si>
-    <t>05503-000</t>
-  </si>
-  <si>
-    <t>30130-010</t>
-  </si>
-  <si>
-    <t>38400-002</t>
-  </si>
-  <si>
-    <t>32010-070</t>
-  </si>
-  <si>
-    <t>36010-000</t>
-  </si>
-  <si>
-    <t>32600-004</t>
-  </si>
-  <si>
-    <t>39400-000</t>
-  </si>
-  <si>
-    <t>69010-060</t>
-  </si>
-  <si>
-    <t>69151-000</t>
-  </si>
-  <si>
-    <t>69400-000</t>
-  </si>
-  <si>
-    <t>20040-002</t>
-  </si>
-  <si>
-    <t>22041-001</t>
-  </si>
-  <si>
-    <t>22775-005</t>
-  </si>
-  <si>
-    <t>20550-900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	76600-000</t>
-  </si>
-  <si>
-    <t>76610-000</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>66010-000</t>
-  </si>
-  <si>
-    <t>68700-005</t>
-  </si>
-  <si>
-    <t>78480-000</t>
-  </si>
-  <si>
-    <t>78580-000</t>
-  </si>
-  <si>
-    <t>78635-000</t>
-  </si>
-  <si>
-    <t>78780-000</t>
-  </si>
-  <si>
-    <t>40020-000</t>
-  </si>
-  <si>
-    <t>BA</t>
+    <t>RIO GRANDE DO SUL</t>
+  </si>
+  <si>
+    <t>95980-000</t>
+  </si>
+  <si>
+    <t>95293-000</t>
   </si>
 </sst>
 </file>
@@ -289,15 +289,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -582,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,25 +589,25 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,16 +615,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,16 +632,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,16 +649,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,16 +666,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,16 +683,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,16 +700,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,16 +717,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,16 +734,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,16 +751,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,16 +768,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,16 +785,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,16 +802,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,16 +819,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -838,16 +836,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,16 +853,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,16 +870,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,16 +887,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,16 +904,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,16 +921,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,16 +938,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,16 +955,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -974,16 +972,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,16 +989,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,16 +1006,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,16 +1023,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1042,16 +1040,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,16 +1057,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,16 +1074,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,16 +1091,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,16 +1108,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1127,16 +1125,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1144,16 +1142,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,16 +1159,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,16 +1176,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Cadastro Localidades.xlsx
+++ b/Cadastro Localidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUÁRIO\0. Data Analyzes\0. GitHub\Vendas_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA9E30E-087B-44BD-A0DE-A32E9EDAE177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9724982-D1E8-4DAD-9E99-0B876A837416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>05422-010</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02012-010</t>
-  </si>
-  <si>
     <t>04523-010</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>95293-000</t>
+  </si>
+  <si>
+    <t>09750-220</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -618,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
@@ -635,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -686,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>10</v>
@@ -720,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,13 +771,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,13 +805,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,13 +839,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -856,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,13 +873,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,13 +890,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -924,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,13 +975,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>5</v>
@@ -1009,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1026,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>6</v>
@@ -1060,13 +1060,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,13 +1077,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,13 +1094,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,13 +1128,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,13 +1145,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,10 +1162,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>7</v>
@@ -1179,13 +1179,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
